--- a/Income/MSFT_inc.xlsx
+++ b/Income/MSFT_inc.xlsx
@@ -1011,10 +1011,8 @@
           <t>Interest Expense (Operating)</t>
         </is>
       </c>
-      <c r="B8" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B8" s="0" t="n">
+        <v>2479000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>2460000000.0</v>
@@ -1215,22 +1213,22 @@
         </is>
       </c>
       <c r="B9" s="0" t="n">
-        <v>81000000.0</v>
+        <v>-379000000.0</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>-224000000.0</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>-160000000.0</v>
+        <v>142000000.0</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>-42000000.0</v>
+        <v>260000000.0</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>111000000.0</v>
+        <v>413000000.0</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>355000000.0</v>
+        <v>657000000.0</v>
       </c>
       <c r="H9" s="0" t="inlineStr">
         <is>
@@ -1344,22 +1342,22 @@
         </is>
       </c>
       <c r="B10" s="0" t="n">
-        <v>2343000000.0</v>
+        <v>2229000000.0</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>2383000000.0</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>2526000000.0</v>
+        <v>2492000000.0</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>2593000000.0</v>
+        <v>2559000000.0</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>2667000000.0</v>
+        <v>2633000000.0</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>2665000000.0</v>
+        <v>2631000000.0</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>2649000000.0</v>
@@ -1978,25 +1976,23 @@
           <t>EPS (Basic)</t>
         </is>
       </c>
-      <c r="B15" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B15" s="0" t="n">
+        <v>7.34</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>6.71</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>6.19</v>
+        <v>6.21</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>5.77</v>
+        <v>5.79</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>6.03</v>
+        <v>6.05</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>5.78</v>
+        <v>5.8</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>5.36</v>
